--- a/src/6_functional_interaction/results/clustering_nde30ntotal75_manual_annotated.xlsx
+++ b/src/6_functional_interaction/results/clustering_nde30ntotal75_manual_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rzhu/Gladstone Dropbox/Ronghui Zhu/GRNPerturbSeq/4_codes/GWT_perturbseq_analysis/src/6_functional_interaction/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7FC47D6B-BF71-8B47-97EE-C855A68B4F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C55F650E-030B-F846-91FB-B7622C31517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{C49813B3-F2EF-184E-9E74-2B52AF7DA6F9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{C49813B3-F2EF-184E-9E74-2B52AF7DA6F9}"/>
   </bookViews>
   <sheets>
     <sheet name="clustering_nde30ntotal75_manual" sheetId="1" r:id="rId1"/>
@@ -3517,9 +3517,6 @@
     <t>['INTS10/13/14/15']</t>
   </si>
   <si>
-    <t>['URM1', 'MOCS3', 'ELP1/2/3/4/5', 'CTU1/2', 'KTI12']]</t>
-  </si>
-  <si>
     <t>['INO80/80B/80C/80E','ACTR8','ACTR5', 'NFRKB']</t>
   </si>
   <si>
@@ -3614,6 +3611,9 @@
   </si>
   <si>
     <t>['CASC3', 'SMG1/7/8/9', 'UPF2']</t>
+  </si>
+  <si>
+    <t>['URM1', 'MOCS3', 'ELP1/2/3/4/5', 'CTU1/2', 'KTI12']</t>
   </si>
 </sst>
 </file>
@@ -4543,9 +4543,9 @@
   <dimension ref="A1:AI115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4796,7 +4796,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>763</v>
@@ -4898,7 +4898,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1165</v>
+        <v>1197</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>767</v>
@@ -5000,7 +5000,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>760</v>
@@ -5087,7 +5087,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>759</v>
@@ -5291,7 +5291,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>735</v>
@@ -5381,7 +5381,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>977</v>
@@ -5683,7 +5683,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>712</v>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>711</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>765</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>766</v>
@@ -6043,7 +6043,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>764</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>721</v>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>758</v>
@@ -6328,7 +6328,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>757</v>
@@ -6418,7 +6418,7 @@
         <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>756</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>751</v>
@@ -6808,7 +6808,7 @@
         <v>37</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>750</v>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>677</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>1043</v>
@@ -7122,7 +7122,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>704</v>
@@ -7225,7 +7225,7 @@
         <v>12</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>962</v>
@@ -7329,7 +7329,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>714</v>
@@ -7434,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>762</v>
@@ -7539,7 +7539,7 @@
         <v>146</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>744</v>
@@ -7644,7 +7644,7 @@
         <v>28</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>743</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>725</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>741</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>736</v>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>746</v>
@@ -8271,7 +8271,7 @@
         <v>28</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>748</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>726</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>737</v>
@@ -8586,7 +8586,7 @@
         <v>11</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>710</v>
@@ -8691,7 +8691,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>709</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>733</v>
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>681</v>
@@ -11921,7 +11921,7 @@
         <v>4</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>728</v>
